--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H2">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I2">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J2">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N2">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O2">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P2">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q2">
-        <v>0.5953192438062223</v>
+        <v>0.004139837456666666</v>
       </c>
       <c r="R2">
-        <v>5.357873194256</v>
+        <v>0.03725853711</v>
       </c>
       <c r="S2">
-        <v>0.02836539709567632</v>
+        <v>0.002313735217453503</v>
       </c>
       <c r="T2">
-        <v>0.02836539709567632</v>
+        <v>0.002313735217453503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H3">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I3">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J3">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.163547</v>
       </c>
       <c r="O3">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P3">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q3">
-        <v>1.041315817854222</v>
+        <v>0.1612338689268889</v>
       </c>
       <c r="R3">
-        <v>9.371842360687999</v>
+        <v>1.451104820342</v>
       </c>
       <c r="S3">
-        <v>0.0496159614908374</v>
+        <v>0.09011283285571337</v>
       </c>
       <c r="T3">
-        <v>0.0496159614908374</v>
+        <v>0.09011283285571339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H4">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I4">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J4">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N4">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O4">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P4">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q4">
-        <v>8.062822895523556</v>
+        <v>0.2365616947146666</v>
       </c>
       <c r="R4">
-        <v>72.565406059712</v>
+        <v>2.129055252432</v>
       </c>
       <c r="S4">
-        <v>0.3841723168251561</v>
+        <v>0.1322131919166022</v>
       </c>
       <c r="T4">
-        <v>0.3841723168251561</v>
+        <v>0.1322131919166023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.344612</v>
       </c>
       <c r="I5">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J5">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N5">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O5">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P5">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q5">
-        <v>0.2443754350742223</v>
+        <v>0.01097531784666667</v>
       </c>
       <c r="R5">
-        <v>2.199378915668</v>
+        <v>0.09877786062</v>
       </c>
       <c r="S5">
-        <v>0.01164384710964475</v>
+        <v>0.006134052288377877</v>
       </c>
       <c r="T5">
-        <v>0.01164384710964475</v>
+        <v>0.006134052288377878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.344612</v>
       </c>
       <c r="I6">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J6">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>11.163547</v>
       </c>
       <c r="O6">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P6">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q6">
         <v>0.4274546954182222</v>
@@ -818,10 +818,10 @@
         <v>3.847092258764</v>
       </c>
       <c r="S6">
-        <v>0.02036709261811791</v>
+        <v>0.2389023706866363</v>
       </c>
       <c r="T6">
-        <v>0.02036709261811791</v>
+        <v>0.2389023706866363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.344612</v>
       </c>
       <c r="I7">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J7">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N7">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O7">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P7">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q7">
-        <v>3.309746616659556</v>
+        <v>0.6271598382826666</v>
       </c>
       <c r="R7">
-        <v>29.787719549936</v>
+        <v>5.644438544544</v>
       </c>
       <c r="S7">
-        <v>0.1577007261975532</v>
+        <v>0.3505166132719226</v>
       </c>
       <c r="T7">
-        <v>0.1577007261975532</v>
+        <v>0.3505166132719227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H8">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I8">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J8">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N8">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O8">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P8">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q8">
-        <v>0.4484466374813334</v>
+        <v>0.003313627993333333</v>
       </c>
       <c r="R8">
-        <v>4.036019737332</v>
+        <v>0.02982265194</v>
       </c>
       <c r="S8">
-        <v>0.02136730347745878</v>
+        <v>0.001851970727345501</v>
       </c>
       <c r="T8">
-        <v>0.02136730347745878</v>
+        <v>0.001851970727345501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H9">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I9">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J9">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>11.163547</v>
       </c>
       <c r="O9">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P9">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q9">
-        <v>0.7844103511373334</v>
+        <v>0.1290555648964444</v>
       </c>
       <c r="R9">
-        <v>7.059693160236001</v>
+        <v>1.161500084068</v>
       </c>
       <c r="S9">
-        <v>0.03737509131018754</v>
+        <v>0.07212853370085889</v>
       </c>
       <c r="T9">
-        <v>0.03737509131018755</v>
+        <v>0.07212853370085889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H10">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I10">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J10">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N10">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O10">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P10">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q10">
-        <v>6.073624956229334</v>
+        <v>0.1893498143253333</v>
       </c>
       <c r="R10">
-        <v>54.66262460606401</v>
+        <v>1.704148328928</v>
       </c>
       <c r="S10">
-        <v>0.2893922638753679</v>
+        <v>0.1058266993350897</v>
       </c>
       <c r="T10">
-        <v>0.2893922638753679</v>
+        <v>0.1058266993350897</v>
       </c>
     </row>
   </sheetData>
